--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1438.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1438.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.84591080476914</v>
+        <v>1.438146710395813</v>
       </c>
       <c r="B1">
-        <v>2.139089294136897</v>
+        <v>3.601300716400146</v>
       </c>
       <c r="C1">
-        <v>2.712617385305176</v>
+        <v>5.548090934753418</v>
       </c>
       <c r="D1">
-        <v>2.768567305528612</v>
+        <v>1.704299569129944</v>
       </c>
       <c r="E1">
-        <v>0.6873788749469467</v>
+        <v>0.972909152507782</v>
       </c>
     </row>
   </sheetData>
